--- a/Finanças.xlsx
+++ b/Finanças.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
   <si>
     <t>Mês</t>
   </si>
@@ -380,9 +380,6 @@
     <t>Cabo Frio:</t>
   </si>
   <si>
-    <t>Porto de galinhas:</t>
-  </si>
-  <si>
     <t>Ilha Bela:</t>
   </si>
   <si>
@@ -401,10 +398,70 @@
     <t>Maragogi: https://www.skyscanner.com.br/transporte/passagens-aereas/saoa/rec/201119/201122/?adults=2&amp;children=0&amp;adultsv2=2&amp;childrenv2=&amp;infants=0&amp;cabinclass=economy&amp;rtn=1&amp;preferdirects=false&amp;outboundaltsenabled=false&amp;inboundaltsenabled=false&amp;destinationgsid=32766074&amp;ref=home#/details/10482-2011192210--32269-0-15826-2011200120|15826-2011220935--32269-0-10482-2011221255</t>
   </si>
   <si>
-    <t>S:22h - 09h35h</t>
-  </si>
-  <si>
     <t>Salvador: https://www.skyscanner.com.br/transporte/passagens-aereas/saoa/ssa/201119/201122/?adults=2&amp;children=0&amp;adultsv2=2&amp;childrenv2=&amp;infants=0&amp;cabinclass=economy&amp;rtn=1&amp;preferdirects=false&amp;outboundaltsenabled=false&amp;inboundaltsenabled=false&amp;ref=home#/details/11952-2011192110--32269-0-16536-2011192330|16536-2011221925--32269-0-11952-2011222200</t>
+  </si>
+  <si>
+    <t>S:20h25 - V:18H05</t>
+  </si>
+  <si>
+    <t>S:21h10 - 09h35h</t>
+  </si>
+  <si>
+    <t>Porto de galinhas: https://www.skyscanner.com.br/transporte/passagens-aereas/saoa/rec/201119/201122/?adults=2&amp;children=0&amp;adultsv2=2&amp;childrenv2=&amp;infants=0&amp;cabinclass=economy&amp;rtn=1&amp;preferdirects=false&amp;outboundaltsenabled=false&amp;inboundaltsenabled=false&amp;ref=home#/details/11952-2011192110--32269-0-15826-2011200015|15826-2011220935--32269-0-10482-2011221255</t>
+  </si>
+  <si>
+    <t>S: 21h10 - V:6h45</t>
+  </si>
+  <si>
+    <t>S:22h - V 09h35h</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortaleza- Canoa quebrada </t>
+  </si>
+  <si>
+    <t>S: 22H - V17H55</t>
+  </si>
+  <si>
+    <t>Fortaleza - canoa qubrada: https://www.skyscanner.com.br/transporte/passagens-aereas/saoa/for/201119/201122/?adults=2&amp;children=0&amp;adultsv2=2&amp;childrenv2=&amp;infants=0&amp;cabinclass=economy&amp;rtn=1&amp;preferdirects=false&amp;outboundaltsenabled=false&amp;inboundaltsenabled=false&amp;ref=home#/details/11952-2011192210--32269-0-11607-2011200135|11607-2011221755--32269-0-11952-2011222130</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Canoa quebrada: https://www.fortaltur.com.br/servicos/transfer-fortal-canoa-quebrada-privativo-5p</t>
+  </si>
+  <si>
+    <t>Ubatuba: https://www.checkmybus.com.br/#departureDate=2020-02-02&amp;origin=S%C3%A3o%20Paulo%2C%20Brasil%24-23.551%2C-46.633&amp;destination=Ubatuba%2C%20Brasil%24-23.435335%2C-45.086514&amp;sortValue=Departure&amp;sortOrder=ascending&amp;radius=15&amp;adults=2&amp;returnDate=2020-02-05</t>
+  </si>
+  <si>
+    <t>S: 18:30 - V: 23:20</t>
+  </si>
+  <si>
+    <t>Natal: https://www.booking.com/hotel/br/pousada-villa-do-sol-extremoz.pt-br.html?aid=304142;label=gen173nr-1FCAEoggI46AdIM1gEaCCIAQGYAS24ARfIAQzYAQHoAQH4AQuIAgGoAgO4AuCUy_EFwAIB;sid=7273d1a0f3d2a9bcca139a051962027e;all_sr_blocks=30379601_105690167_3_1_0;checkin=2020-11-19;checkout=2020-11-22;dest_id=20804;dest_type=landmark;dist=0;group_adults=2;group_children=0;hapos=2;highlighted_blocks=30379601_105690167_3_1_0;hpos=2;nflt=mealplan%3D1%3Bfc%3D2%3Bpri%3D2%3B;no_rooms=1;room1=A%2CA;sb_price_type=total;sr_nr_pay_now_track=4;sr_order=popularity;sr_pri_blocks=30379601_105690167_3_1_0__77700;srepoch=1580387098;srpvid=85c7574c0333019d;type=total;ucfs=1&amp;#hotelTmpl</t>
+  </si>
+  <si>
+    <t>Canoa quebrada: https://www.booking.com/hotel/br/falesia-praia.pt-br.html?aid=304142;label=gen173nr-1FCAEoggI46AdIM1gEaCCIAQGYAS24ARfIAQzYAQHoAQH4AQuIAgGoAgO4AuCUy_EFwAIB;sid=7273d1a0f3d2a9bcca139a051962027e;all_sr_blocks=27281602_200132305_0_1_0;checkin=2020-11-19;checkout=2020-11-22;dest_id=-634644;dest_type=city;dist=0;from_beach_non_key_ufi_sr=1;group_adults=2;group_children=0;hapos=4;highlighted_blocks=27281602_200132305_0_1_0;hpos=4;nflt=roomfacility%3D11%3Broomfacility%3D38%3Bmealplan%3D1%3B;no_rooms=1;room1=A%2CA;sb_price_type=total;sr_nr_pay_now_track=0;sr_order=popularity;sr_pri_blocks=27281602_200132305_0_1_0__53999;srepoch=1580387341;srpvid=dd8f57c6b5c40031;type=total;ucfs=1&amp;#hotelTmpl</t>
+  </si>
+  <si>
+    <t>Salvador: https://www.booking.com/hotel/br/salvador-express-praia.pt-br.html?aid=304142;label=gen173nr-1FCAEoggI46AdIM1gEaCCIAQGYAS24ARfIAQzYAQHoAQH4AQuIAgGoAgO4AuCUy_EFwAIB;sid=7273d1a0f3d2a9bcca139a051962027e;all_sr_blocks=137685102_98782667_0_1_0;checkin=2020-11-19;checkout=2020-11-22;dest_id=-667833;dest_type=city;dist=0;from_beach_non_key_ufi_sr=1;group_adults=2;group_children=0;hapos=4;highlighted_blocks=137685102_98782667_0_1_0;hpos=4;nflt=popular_activities%3D302%3Bhr_24%3D8%3Bfc%3D2%3B;no_rooms=1;room1=A%2CA;sb_price_type=total;sr_nr_pay_now_track=4;sr_order=popularity;sr_pri_blocks=137685102_98782667_0_1_0__53279;srepoch=1580387794;srpvid=8ec058a87eb50052;type=total;ucfs=1&amp;#hotelTmpl</t>
+  </si>
+  <si>
+    <t>Jerico: https://www.booking.com/hotel/br/casa-valentini-pousada.pt-br.html?aid=304142;label=gen173nr-1FCAEoggI46AdIM1gEaCCIAQGYAS24ARfIAQzYAQHoAQH4AQuIAgGoAgO4AuCUy_EFwAIB;sid=7273d1a0f3d2a9bcca139a051962027e;all_sr_blocks=591464901_235547800_2_1_0;checkin=2020-11-19;checkout=2020-11-22;dest_id=-649321;dest_type=city;dist=0;from_beach_non_key_ufi_sr=1;group_adults=2;group_children=0;hapos=5;highlighted_blocks=591464901_235547800_2_1_0;hpos=5;nflt=roomfacility%3D11%3Bpri%3D2%3B;no_rooms=1;room1=A%2CA;sb_price_type=total;sr_nr_pay_now_track=4;sr_order=popularity;sr_pri_blocks=591464901_235547800_2_1_0__93000;srepoch=1580387986;srpvid=16875909e9470057;type=total;ucfs=1&amp;#hotelTmpl</t>
+  </si>
+  <si>
+    <t>Morig: https://www.booking.com/hotel/br/maraga-beach-hostel.pt-br.html?aid=304142;label=gen173nr-1FCAEoggI46AdIM1gEaCCIAQGYAS24ARfIAQzYAQHoAQH4AQuIAgGoAgO4AuCUy_EFwAIB;sid=7273d1a0f3d2a9bcca139a051962027e;all_sr_blocks=207622507_125232363_0_1_0;checkin=2020-11-19;checkout=2020-11-22;dest_id=-653685;dest_type=city;dist=0;from_beach_non_key_ufi_sr=1;group_adults=2;group_children=0;hapos=2;highlighted_blocks=207622507_125232363_0_1_0;hpos=2;no_rooms=1;room1=A%2CA;sb_price_type=total;sr_nr_pay_now_track=4;sr_order=popularity;sr_pri_blocks=207622507_125232363_0_1_0__33000;srepoch=1580388202;srpvid=f5a45974da9704b7;type=total;ucfs=1&amp;#hotelTmpl</t>
+  </si>
+  <si>
+    <t>Porto: https://www.booking.com/hotel/br/casa-azul-ipojuca.pt-br.html?aid=304142;label=gen173nr-1FCAEoggI46AdIM1gEaCCIAQGYAS24ARfIAQzYAQHoAQH4AQuIAgGoAgO4AuCUy_EFwAIB;sid=7273d1a0f3d2a9bcca139a051962027e;all_sr_blocks=350085401_232211037_4_0_0;bhgwe_cep=1;checkin=2020-11-19;checkout=2020-11-22;dest_id=-663612;dest_type=city;dist=0;from_beach_non_key_ufi_sr=1;group_adults=2;group_children=0;hapos=29;highlighted_blocks=350085401_232211037_4_0_0;hpos=29;no_rooms=1;room1=A%2CA;sb_price_type=total;sr_nr_pay_now_track=4;sr_order=popularity;sr_pri_blocks=350085401_232211037_4_0_0__102000;srepoch=1580388451;srpvid=d84f59f1c761028e;type=total;ucfs=1&amp;#hotelTmpl</t>
+  </si>
+  <si>
+    <t>Cabo frio: https://www.booking.com/hotel/br/best-western-plus-oasis-cabo-frio-cabo-frio.pt-br.html?aid=304142;label=gen173nr-1FCAEoggI46AdIM1gEaCCIAQGYAS24ARfIAQzYAQHoAQH4AQuIAgGoAgO4AuCUy_EFwAIB;sid=7273d1a0f3d2a9bcca139a051962027e;all_sr_blocks=159349407_93218838_0_1_0;checkin=2020-11-19;checkout=2020-11-22;dest_id=-632162;dest_type=city;dist=0;from_beach_non_key_ufi_sr=1;group_adults=2;group_children=0;hapos=6;highlighted_blocks=159349407_93218838_0_1_0;hpos=6;no_rooms=1;room1=A%2CA;sb_price_type=total;sr_nr_pay_now_track=1;sr_order=popularity;sr_pri_blocks=159349407_93218838_0_1_0__83784;srepoch=1580388621;srpvid=42bd5a4613010144;type=total;ucfs=1&amp;#hotelTmpl</t>
+  </si>
+  <si>
+    <t>Destino definido de uma vez por todas:</t>
   </si>
 </sst>
 </file>
@@ -415,7 +472,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,8 +527,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,8 +574,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -845,6 +917,15 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -855,7 +936,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -944,6 +1025,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -961,6 +1043,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1246,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,11 +1565,11 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -1509,10 +1594,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="54"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="40">
         <v>70</v>
       </c>
@@ -1584,10 +1669,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,42 +1688,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B2" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C2" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G2" s="28" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="G2" s="27">
-        <f>SUM(A2:E17)</f>
-        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
+      <c r="G3" s="27">
+        <f>SUM(A3:E18)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
@@ -1752,7 +1839,17 @@
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
 </worksheet>
@@ -1760,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:U20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1773,21 +1870,26 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
       <c r="G1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1905,11 @@
       <c r="G2" s="45" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="U2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>33</v>
       </c>
@@ -1818,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
         <v>41</v>
       </c>
@@ -1835,10 +1940,10 @@
         <v>44</v>
       </c>
       <c r="G4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>35</v>
       </c>
@@ -1855,7 +1960,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
         <v>36</v>
       </c>
@@ -1869,10 +1974,10 @@
         <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
         <v>37</v>
       </c>
@@ -1886,10 +1991,10 @@
         <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
         <v>51</v>
       </c>
@@ -1903,10 +2008,15 @@
         <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>42</v>
       </c>
@@ -1922,126 +2032,206 @@
       <c r="E10" s="33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
-        <v>59</v>
+      <c r="G10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>71</v>
       </c>
       <c r="B11" s="49">
-        <v>2304</v>
+        <v>76.39</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="49">
-        <f t="shared" ref="D11:D18" si="0">SUM(B11:C11)</f>
-        <v>2304</v>
+        <f>SUM(B11:C11)</f>
+        <v>76.39</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="49">
-        <v>2278</v>
-      </c>
-      <c r="C12" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1361</v>
+      </c>
+      <c r="C12" s="49">
+        <v>620</v>
+      </c>
       <c r="D12" s="49">
-        <f t="shared" si="0"/>
-        <v>2278</v>
+        <f>SUM(B12:C12)</f>
+        <v>1981</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="3">
         <v>2088</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="49">
+        <v>700</v>
+      </c>
       <c r="D13" s="49">
-        <f t="shared" si="0"/>
-        <v>2088</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
+        <f>SUM(B13:C13)</f>
+        <v>2788</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="49">
+        <v>2278</v>
+      </c>
+      <c r="C14" s="49">
+        <v>479</v>
+      </c>
       <c r="D14" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>SUM(B14:C14)</f>
+        <v>2757</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="49">
+        <v>2298</v>
+      </c>
+      <c r="C15" s="49">
+        <v>1080</v>
+      </c>
       <c r="D15" s="49">
-        <f t="shared" si="0"/>
+        <f>SUM(B15:C15)</f>
+        <v>3378</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="49">
+        <v>2304</v>
+      </c>
+      <c r="C16" s="49">
+        <v>930</v>
+      </c>
+      <c r="D16" s="49">
+        <f>SUM(B16:C16)</f>
+        <v>3234</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="49">
+        <v>2736</v>
+      </c>
+      <c r="C17" s="49">
+        <v>870</v>
+      </c>
+      <c r="D17" s="49">
+        <f>SUM(B17:C17)</f>
+        <v>3606</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="49">
+        <v>3692</v>
+      </c>
+      <c r="C18" s="49">
+        <v>887</v>
+      </c>
+      <c r="D18" s="49">
+        <f>SUM(B18:C18)</f>
+        <v>4579</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="49">
+        <f>SUM(B19:C19)</f>
         <v>0</v>
       </c>
-      <c r="E15" s="27" t="s">
+      <c r="E19" s="27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="49">
-        <f t="shared" si="0"/>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="49">
+        <f>SUM(B20:C20)</f>
         <v>0</v>
       </c>
-      <c r="E16" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1361</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="49">
-        <f t="shared" si="0"/>
-        <v>1361</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="E20" s="27"/>
     </row>
   </sheetData>
+  <sortState ref="A11:E20">
+    <sortCondition ref="B11"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>

--- a/Finanças.xlsx
+++ b/Finanças.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4575"/>
   </bookViews>
   <sheets>
     <sheet name="2020" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>Mês</t>
   </si>
@@ -103,19 +103,10 @@
     <t>Passagem</t>
   </si>
   <si>
-    <t>Alimentação</t>
-  </si>
-  <si>
     <t>Hospedagem</t>
   </si>
   <si>
-    <t>Passeios</t>
-  </si>
-  <si>
     <t>Extra</t>
-  </si>
-  <si>
-    <t>Estimativa gasto</t>
   </si>
   <si>
     <t>Ida</t>
@@ -356,9 +347,6 @@
     <t>Ilha bela</t>
   </si>
   <si>
-    <t>Transporte</t>
-  </si>
-  <si>
     <t>Links passagens</t>
   </si>
   <si>
@@ -419,9 +407,6 @@
     <t>Chile</t>
   </si>
   <si>
-    <t xml:space="preserve">Fortaleza- Canoa quebrada </t>
-  </si>
-  <si>
     <t>S: 22H - V17H55</t>
   </si>
   <si>
@@ -461,7 +446,42 @@
     <t>Cabo frio: https://www.booking.com/hotel/br/best-western-plus-oasis-cabo-frio-cabo-frio.pt-br.html?aid=304142;label=gen173nr-1FCAEoggI46AdIM1gEaCCIAQGYAS24ARfIAQzYAQHoAQH4AQuIAgGoAgO4AuCUy_EFwAIB;sid=7273d1a0f3d2a9bcca139a051962027e;all_sr_blocks=159349407_93218838_0_1_0;checkin=2020-11-19;checkout=2020-11-22;dest_id=-632162;dest_type=city;dist=0;from_beach_non_key_ufi_sr=1;group_adults=2;group_children=0;hapos=6;highlighted_blocks=159349407_93218838_0_1_0;hpos=6;no_rooms=1;room1=A%2CA;sb_price_type=total;sr_nr_pay_now_track=1;sr_order=popularity;sr_pri_blocks=159349407_93218838_0_1_0__83784;srepoch=1580388621;srpvid=42bd5a4613010144;type=total;ucfs=1&amp;#hotelTmpl</t>
   </si>
   <si>
-    <t>Destino definido de uma vez por todas:</t>
+    <t>Destino definido de uma vez por todas: Fortaleza CEARÁ</t>
+  </si>
+  <si>
+    <t>OceanView</t>
+  </si>
+  <si>
+    <t>Empresa de viagem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passeios </t>
+  </si>
+  <si>
+    <t>3 praias em 1 dia</t>
+  </si>
+  <si>
+    <t>Dia previsto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Beach park 
+(ADD 60 reais do transporte)</t>
+  </si>
+  <si>
+    <t>20/11/2020 sáb</t>
+  </si>
+  <si>
+    <t>19/11/2020 quin</t>
+  </si>
+  <si>
+    <t>Passeios tot</t>
+  </si>
+  <si>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Águas belas</t>
   </si>
 </sst>
 </file>
@@ -537,7 +557,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,18 +590,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -925,6 +957,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -936,7 +992,7 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -985,9 +1041,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1017,15 +1070,14 @@
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1041,11 +1093,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1331,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1532,20 +1624,20 @@
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="42">
-        <v>600</v>
-      </c>
-      <c r="C12" s="42">
-        <v>600</v>
-      </c>
-      <c r="D12" s="43">
+      <c r="B12" s="41">
+        <v>600</v>
+      </c>
+      <c r="C12" s="41">
+        <v>600</v>
+      </c>
+      <c r="D12" s="42">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="43"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
@@ -1565,11 +1657,11 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
@@ -1583,29 +1675,29 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34">
+      <c r="A17" s="33">
         <v>43857</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="35">
         <v>600</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="55"/>
-      <c r="C18" s="40">
+      <c r="A18" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="39">
         <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
@@ -1669,186 +1761,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="G3" s="27">
-        <f>SUM(A3:E18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="61" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="71">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="68"/>
+      <c r="B4" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="58">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="60">
+        <v>44156</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="46">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27"/>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66">
+        <f>SUM(D3:D9)</f>
+        <v>710</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId1"/>
@@ -1859,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1868,365 +1896,379 @@
     <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="93.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="8" max="8" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="93.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
-        <v>34</v>
+      <c r="A1" s="55" t="s">
+        <v>31</v>
       </c>
       <c r="B1" s="56"/>
       <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="G1" t="s">
-        <v>63</v>
+      <c r="D1" s="57"/>
+      <c r="H1" t="s">
+        <v>59</v>
       </c>
       <c r="U1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="U2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
-        <v>33</v>
-      </c>
       <c r="B3" s="27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
+      <c r="H4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" t="s">
-        <v>69</v>
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" t="s">
-        <v>79</v>
+        <v>37</v>
+      </c>
+      <c r="H6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>70</v>
+      <c r="H7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" t="s">
-        <v>72</v>
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G9" t="s">
-        <v>85</v>
+      <c r="H9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="33" t="s">
+      <c r="A10" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" t="s">
-        <v>88</v>
+      <c r="C10" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="49">
+      <c r="A11" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="46">
         <v>76.39</v>
       </c>
       <c r="C11" s="27"/>
-      <c r="D11" s="49">
-        <f>SUM(B11:C11)</f>
+      <c r="D11" s="27"/>
+      <c r="E11" s="46">
+        <f>SUM(B11,D11)</f>
         <v>76.39</v>
       </c>
-      <c r="E11" s="27" t="s">
-        <v>89</v>
+      <c r="F11" s="27" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>73</v>
+      <c r="A12" s="31" t="s">
+        <v>69</v>
       </c>
       <c r="B12" s="3">
         <v>1361</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="46">
         <v>620</v>
       </c>
-      <c r="D12" s="49">
-        <f>SUM(B12:C12)</f>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46">
+        <f t="shared" ref="E12:E20" si="0">SUM(B12:C12)</f>
         <v>1981</v>
       </c>
-      <c r="E12" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="G12" t="s">
-        <v>26</v>
+      <c r="F12" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B13" s="3">
         <v>2088</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="46">
         <v>700</v>
       </c>
-      <c r="D13" s="49">
-        <f>SUM(B13:C13)</f>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46">
+        <f t="shared" si="0"/>
         <v>2788</v>
       </c>
-      <c r="E13" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="46">
+        <v>2278</v>
+      </c>
+      <c r="C14" s="46">
+        <v>479</v>
+      </c>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46">
+        <f t="shared" si="0"/>
+        <v>2757</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="46">
+        <v>2298</v>
+      </c>
+      <c r="C15" s="46">
+        <v>1080</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46">
+        <f t="shared" si="0"/>
+        <v>3378</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="46">
+        <v>2304</v>
+      </c>
+      <c r="C16" s="46">
+        <v>930</v>
+      </c>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46">
+        <f t="shared" si="0"/>
+        <v>3234</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="69">
+        <v>2736</v>
+      </c>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69">
+        <v>710</v>
+      </c>
+      <c r="E17" s="69">
+        <f>SUM(B17:D17)</f>
+        <v>3446</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="H17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="46">
+        <v>3692</v>
+      </c>
+      <c r="C18" s="46">
+        <v>887</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46">
+        <f t="shared" si="0"/>
+        <v>4579</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="49">
-        <v>2278</v>
-      </c>
-      <c r="C14" s="49">
-        <v>479</v>
-      </c>
-      <c r="D14" s="49">
-        <f>SUM(B14:C14)</f>
-        <v>2757</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G14" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="49">
-        <v>2298</v>
-      </c>
-      <c r="C15" s="49">
-        <v>1080</v>
-      </c>
-      <c r="D15" s="49">
-        <f>SUM(B15:C15)</f>
-        <v>3378</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="49">
-        <v>2304</v>
-      </c>
-      <c r="C16" s="49">
-        <v>930</v>
-      </c>
-      <c r="D16" s="49">
-        <f>SUM(B16:C16)</f>
-        <v>3234</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="49">
-        <v>2736</v>
-      </c>
-      <c r="C17" s="49">
-        <v>870</v>
-      </c>
-      <c r="D17" s="49">
-        <f>SUM(B17:C17)</f>
-        <v>3606</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="G17" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="26" t="s">
         <v>58</v>
-      </c>
-      <c r="B18" s="49">
-        <v>3692</v>
-      </c>
-      <c r="C18" s="49">
-        <v>887</v>
-      </c>
-      <c r="D18" s="49">
-        <f>SUM(B18:C18)</f>
-        <v>4579</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="G18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>61</v>
       </c>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
-      <c r="D19" s="49">
-        <f>SUM(B19:C19)</f>
+      <c r="D19" s="27"/>
+      <c r="E19" s="46">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E19" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>82</v>
+      <c r="F19" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
-      <c r="D20" s="49">
-        <f>SUM(B20:C20)</f>
+      <c r="D20" s="27"/>
+      <c r="E20" s="46">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
   </sheetData>
   <sortState ref="A11:E20">
@@ -2236,7 +2278,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" location="/details/17472-2011191915--32269-2-25551-2011200935|25551-2011221415--32269-0-11952-2011221750" display="https://www.skyscanner.com.br/transport/flights/saoa/jjd/201119/201122/?adults=2&amp;children=0&amp;adultsv2=2&amp;childrenv2=&amp;infants=0&amp;cabinclass=economy&amp;rtn=1&amp;preferdirects=false&amp;outboundaltsenabled=false&amp;inboundaltsenabled=false&amp;ref=home - /details/17472-2011191915--32269-2-25551-2011200935|25551-2011221415--32269-0-11952-2011221750"/>
+    <hyperlink ref="H2" r:id="rId1" location="/details/17472-2011191915--32269-2-25551-2011200935|25551-2011221415--32269-0-11952-2011221750" display="https://www.skyscanner.com.br/transport/flights/saoa/jjd/201119/201122/?adults=2&amp;children=0&amp;adultsv2=2&amp;childrenv2=&amp;infants=0&amp;cabinclass=economy&amp;rtn=1&amp;preferdirects=false&amp;outboundaltsenabled=false&amp;inboundaltsenabled=false&amp;ref=home - /details/17472-2011191915--32269-2-25551-2011200935|25551-2011221415--32269-0-11952-2011221750"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="599" r:id="rId2"/>
